--- a/biology/Médecine/Vitropression/Vitropression.xlsx
+++ b/biology/Médecine/Vitropression/Vitropression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La vitropression est un test utilisé en dermatologie qui consiste à appuyer sur une lésion de la peau avec une lame de verre transparente, plate ou légèrement bombée, et de chasser ainsi le sang des vaisseaux de la zone comprimée.
 Les lésions disparaissant à la vitropression sont secondaires à une anomalie de la circulation dans les micro vaisseaux. Le plus classique étant l'érythème, ou encore l'angiome stellaire qui disparaît à la vitropression et réapparaît de façon centrifuge, à partir d'un point central, lorsqu'on relâche la pression.
